--- a/results/Comparison_correct-v2.xlsx
+++ b/results/Comparison_correct-v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="39">
   <si>
     <t xml:space="preserve">USING DECISION TREE AS CLASSIFIER</t>
   </si>
@@ -47,61 +47,70 @@
     <t xml:space="preserve">Local</t>
   </si>
   <si>
+    <t xml:space="preserve">Exhaustive Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oes10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oes97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rf2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scm1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scm20d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water-quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./processBaselinesRegression.sh outputBaselineRFTSTRegression/BaselinesRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ./processValidationInTest.sh output_classificationValRF/BruteForceAdhoc AUPRC</t>
+  </si>
+  <si>
     <t xml:space="preserve">BruteForce</t>
   </si>
   <si>
     <t xml:space="preserve">Genetic Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oes10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oes97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rf1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rf2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scm1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scm20d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water-quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olfaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ./processValidationInTest.sh output_classificationValRF/BruteForceAdhoc AUPRC</t>
   </si>
   <si>
     <t xml:space="preserve">birds</t>
@@ -135,10 +144,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="165" formatCode="#,###.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -232,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,15 +267,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,10 +324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:Q33"/>
+  <dimension ref="C2:R39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R32" activeCellId="0" sqref="R32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,9 +335,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,13 +424,13 @@
       <c r="E7" s="4" t="n">
         <v>335.536215625</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="4" t="n">
         <v>294.197835</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="5" t="n">
         <v>293.04720425</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="4" t="n">
         <v>218.810868125</v>
       </c>
       <c r="I7" s="0" t="n">
@@ -393,19 +439,19 @@
       <c r="L7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="6" t="n">
         <v>240.693775</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="7" t="n">
         <v>227.7623975</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="6" t="n">
         <v>232.545646875</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="6" t="n">
         <v>229.98624375</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="6" t="n">
         <v>210.039516875</v>
       </c>
     </row>
@@ -419,13 +465,13 @@
       <c r="E8" s="4" t="n">
         <v>480.957105625</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="4" t="n">
         <v>504.247715</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="5" t="n">
         <v>477.024043499999</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="4" t="n">
         <v>356.123936875</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -434,19 +480,19 @@
       <c r="L8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="6" t="n">
         <v>395.100456875</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="7" t="n">
         <v>379.34393125</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="6" t="n">
         <v>394.5179975</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="6" t="n">
         <v>385.13324875</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="6" t="n">
         <v>349.55925375</v>
       </c>
     </row>
@@ -454,19 +500,19 @@
       <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8" t="n">
         <v>5.04009125</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0.60032875</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="4" t="n">
         <v>0.59803125</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="4" t="n">
         <v>0.600813749999999</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="4" t="n">
         <v>0.55923875</v>
       </c>
       <c r="I9" s="0" t="n">
@@ -475,19 +521,19 @@
       <c r="L9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="6" t="n">
         <v>0.42858</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="7" t="n">
         <v>0.412795</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="6" t="n">
         <v>0.4157375</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="6" t="n">
         <v>0.417603749999999</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="6" t="n">
         <v>0.4031775</v>
       </c>
     </row>
@@ -495,19 +541,19 @@
       <c r="C10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="8" t="n">
         <v>5.04321</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="8" t="n">
         <v>0.61703625</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="4" t="n">
         <v>0.6146425</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="5" t="n">
         <v>0.6127</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.565155</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -516,19 +562,19 @@
       <c r="L10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="6" t="n">
         <v>0.87113</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="7" t="n">
         <v>0.7214025</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="6" t="n">
         <v>0.7962725</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="6" t="n">
         <v>0.7748125</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="6" t="n">
         <v>0.6933925</v>
       </c>
     </row>
@@ -539,16 +585,16 @@
       <c r="D11" s="4" t="n">
         <v>79.86608875</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="8" t="n">
         <v>68.365613125</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="n">
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>68.1876514999999</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="0" t="n">
@@ -557,19 +603,19 @@
       <c r="L11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="6" t="n">
         <v>53.58701125</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="7" t="n">
         <v>49.55937625</v>
       </c>
-      <c r="O11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="0" t="n">
+      <c r="O11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="6" t="n">
         <v>49.7382675</v>
       </c>
-      <c r="Q11" s="0" t="s">
+      <c r="Q11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -577,19 +623,19 @@
       <c r="C12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="8" t="n">
         <v>93.221359375</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="8" t="n">
         <v>85.27151</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="4" t="n">
         <v>84.9192025</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="5" t="n">
         <v>84.200227125</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="4" t="n">
         <v>79.739714375</v>
       </c>
       <c r="I12" s="0" t="n">
@@ -598,19 +644,19 @@
       <c r="L12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="6" t="n">
         <v>66.070739375</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="7" t="n">
         <v>64.81183875</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="0" t="n">
+      <c r="O12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="6" t="n">
         <v>64.859575625</v>
       </c>
-      <c r="Q12" s="0" t="s">
+      <c r="Q12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -624,13 +670,13 @@
       <c r="E13" s="5" t="n">
         <v>0.861159285714286</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="4" t="n">
         <v>0.871075</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="4" t="n">
         <v>0.867441857142857</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="4" t="n">
         <v>0.831125714285714</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -639,19 +685,19 @@
       <c r="L13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="9" t="n">
         <v>0.832445714285714</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="9" t="n">
         <v>0.825584285714286</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="6" t="n">
         <v>0.825491428571428</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="7" t="n">
         <v>0.824575</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="6" t="n">
         <v>0.802699285714286</v>
       </c>
     </row>
@@ -665,13 +711,13 @@
       <c r="E14" s="4" t="n">
         <v>3270.1264875</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="4" t="n">
         <v>2992.45627333333</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="5" t="n">
         <v>2945.42235416666</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="4" t="n">
         <v>2363.7703875</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -680,19 +726,19 @@
       <c r="L14" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="6" t="n">
         <v>2959.88022583333</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="6" t="n">
         <v>2938.12863416667</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="6" t="n">
         <v>2957.15324666667</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="6" t="n">
         <v>2945.42235416666</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14" s="6" t="n">
         <v>2684.334285</v>
       </c>
     </row>
@@ -700,37 +746,38 @@
       <c r="C15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="4" t="n">
         <v>10.4384103984451</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="4" t="n">
         <v>10.8651847424684</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="n">
         <v>10.2837524781341</v>
       </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="6" t="n">
         <v>9.73658785228377</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15" s="6" t="n">
         <v>10.0457223517979</v>
       </c>
-      <c r="O15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="0" t="n">
+      <c r="O15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="6" t="n">
         <v>9.83314810495625</v>
       </c>
-      <c r="Q15" s="0" t="s">
+      <c r="Q15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -738,43 +785,43 @@
       <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">AVERAGE(D7:D14)</f>
-        <v>501.84252297247</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">AVERAGE(E7:E14)</f>
-        <v>530.291932020089</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">AVERAGE(G7:G14)</f>
-        <v>483.7453045186</v>
-      </c>
-      <c r="H16" s="0" t="s">
+      <c r="D16" s="4" t="n">
+        <f aca="false">AVERAGE(D7:D15)</f>
+        <v>447.2420660198</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">AVERAGE(E7:E15)</f>
+        <v>472.577848989243</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <f aca="false">AVERAGE(G7:G15)</f>
+        <v>431.138465402993</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <f aca="false">AVERAGE(M7:M14)</f>
-        <v>464.683045505952</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <f aca="false">AVERAGE(N7:N14)</f>
-        <v>457.695744962798</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <f aca="false">AVERAGE(O7:O14)</f>
-        <v>597.709065411707</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <f aca="false">AVERAGE(P7:P14)</f>
-        <v>459.644585130208</v>
-      </c>
+      <c r="M16" s="6" t="n">
+        <f aca="false">AVERAGE(M7:M15)</f>
+        <v>414.133439099989</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <f aca="false">AVERAGE(N7:N15)</f>
+        <v>407.956853561576</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <f aca="false">AVERAGE(P7:P15)</f>
+        <v>409.665536571846</v>
+      </c>
+      <c r="Q16" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="3" t="s">
@@ -838,13 +885,13 @@
       <c r="E24" s="4" t="n">
         <v>1508252.23498125</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="4" t="n">
         <v>1022735.09378</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="5" t="n">
         <v>969418.822309125</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="4" t="n">
         <v>355498.88914875</v>
       </c>
       <c r="L24" s="0" t="s">
@@ -853,16 +900,16 @@
       <c r="M24" s="4" t="n">
         <v>532364.60696375</v>
       </c>
-      <c r="N24" s="6" t="n">
+      <c r="N24" s="8" t="n">
         <v>531129.18718375</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24" s="4" t="n">
         <v>522310.814310625</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="4" t="n">
         <v>519432.865420624</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="Q24" s="4" t="n">
         <v>388882.957114375</v>
       </c>
     </row>
@@ -876,13 +923,13 @@
       <c r="E25" s="5" t="n">
         <v>1904021.83070375</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="4" t="n">
         <v>2262792.3246825</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="4" t="n">
         <v>1921188.99825175</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="4" t="n">
         <v>623643.08629125</v>
       </c>
       <c r="L25" s="0" t="s">
@@ -891,16 +938,16 @@
       <c r="M25" s="4" t="n">
         <v>974421.037385</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="8" t="n">
         <v>915283.118903125</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="4" t="n">
         <v>941780.30508375</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="4" t="n">
         <v>942517.11103625</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="4" t="n">
         <v>652170.52735875</v>
       </c>
     </row>
@@ -908,19 +955,19 @@
       <c r="C26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="8" t="n">
         <v>210.33799125</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="8" t="n">
         <v>4.8013175</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="5" t="n">
         <v>3.251645</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="4" t="n">
         <v>3.576215</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="4" t="n">
         <v>1.81890875</v>
       </c>
       <c r="L26" s="0" t="s">
@@ -929,16 +976,16 @@
       <c r="M26" s="4" t="n">
         <v>2.30629</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="8" t="n">
         <v>1.5901125</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="4" t="n">
         <v>1.89784125</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="4" t="n">
         <v>1.956415</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="Q26" s="4" t="n">
         <v>1.5618625</v>
       </c>
     </row>
@@ -946,19 +993,19 @@
       <c r="C27" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="8" t="n">
         <v>210.275505</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="8" t="n">
         <v>4.1802525</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="4" t="n">
         <v>5.74483625</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="5" t="n">
         <v>3.60863</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="4" t="n">
         <v>1.86238</v>
       </c>
       <c r="L27" s="0" t="s">
@@ -967,16 +1014,16 @@
       <c r="M27" s="4" t="n">
         <v>7.3471375</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="8" t="n">
         <v>4.73616625</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="4" t="n">
         <v>5.3956675</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="4" t="n">
         <v>6.04918875</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="Q27" s="4" t="n">
         <v>4.306675</v>
       </c>
     </row>
@@ -987,32 +1034,32 @@
       <c r="D28" s="4" t="n">
         <v>15357.2590825</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="8" t="n">
         <v>13034.343416875</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="5" t="n">
         <v>12721.214303125</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="5"/>
       <c r="L28" s="0" t="s">
         <v>16</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>7323.444506875</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="8" t="n">
         <v>6601.73254125</v>
       </c>
-      <c r="O28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="0" t="n">
+      <c r="O28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="4" t="n">
         <v>6615.592026875</v>
       </c>
-      <c r="Q28" s="0" t="s">
+      <c r="Q28" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1020,19 +1067,19 @@
       <c r="C29" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="8" t="n">
         <v>20866.32091625</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="8" t="n">
         <v>20135.445213125</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="4" t="n">
         <v>19113.97089</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="5" t="n">
         <v>18963.374284375</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="4" t="n">
         <v>16189.54034125</v>
       </c>
       <c r="L29" s="0" t="s">
@@ -1041,16 +1088,16 @@
       <c r="M29" s="4" t="n">
         <v>9864.792405</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="8" t="n">
         <v>9742.48709375</v>
       </c>
-      <c r="O29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="0" t="n">
+      <c r="O29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="4" t="n">
         <v>9678.538551875</v>
       </c>
-      <c r="Q29" s="0" t="s">
+      <c r="Q29" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1064,31 +1111,31 @@
       <c r="E30" s="4" t="n">
         <v>1.55736285714286</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="5" t="n">
         <v>1.52703</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="4" t="n">
         <v>1.52870171428571</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="4" t="n">
         <v>1.39094642857143</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="8" t="n">
         <v>1.35214428571429</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="8" t="n">
         <v>1.353015</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30" s="4" t="n">
         <v>1.35027928571429</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="4" t="n">
         <v>1.34330857142857</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="Q30" s="4" t="n">
         <v>1.27859142857143</v>
       </c>
     </row>
@@ -1097,75 +1144,71 @@
         <v>20</v>
       </c>
       <c r="D31" s="4" t="n">
-        <f aca="false">3.53917960778694*10^7</f>
-        <v>35391796.0778694</v>
+        <v>159818070.212412</v>
       </c>
       <c r="E31" s="4" t="n">
-        <f aca="false">4.28651928502041*10^7</f>
-        <v>42865192.8502041</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">3.61565476474173*10^7</f>
-        <v>36156547.6474173</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>171559164.254151</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">3.5878115010802*10^7</f>
-        <v>35878115.010802</v>
+        <v>271405419.659916</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>216969087.306444</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>171559164.25</v>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>82107062.6266975</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <f aca="false">3.95277925178316*10^7</f>
-        <v>39527792.5178316</v>
+      <c r="M31" s="4" t="n">
+        <v>174889379.175462</v>
       </c>
       <c r="N31" s="4" t="n">
-        <f aca="false">3.15486468098213*10^7</f>
-        <v>31548646.8098213</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <f aca="false">4.20245017582565*10^7</f>
-        <v>42024501.7582565</v>
-      </c>
-      <c r="P31" s="7" t="n">
-        <v>171559164.254151</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>3.73624861999463</v>
-      </c>
+        <v>170593440.350986</v>
+      </c>
+      <c r="O31" s="4" t="n">
+        <v>167052858.826317</v>
+      </c>
+      <c r="P31" s="4" t="n">
+        <v>171559164.25</v>
+      </c>
+      <c r="Q31" s="4" t="n">
+        <v>127366722.03009</v>
+      </c>
+      <c r="R31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="4" t="n">
         <v>367.600051895044</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="4" t="n">
         <v>572.73523488824</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="n">
         <v>416.800873858114</v>
       </c>
+      <c r="H32" s="4"/>
       <c r="L32" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="4" t="n">
         <v>345.620328862974</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="N32" s="4" t="n">
         <v>354.268978911564</v>
       </c>
-      <c r="O32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="0" t="n">
+      <c r="O32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="4" t="n">
         <v>348.323910787172</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1173,44 +1216,66 @@
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">AVERAGE(D24:D31)</f>
-        <v>4874079.63574734</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <f aca="false">AVERAGE(E24:E31)</f>
-        <v>5788830.9054315</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">AVERAGE(G24:G31)</f>
-        <v>21810183.1721058</v>
-      </c>
-      <c r="H33" s="0" t="s">
+      <c r="D33" s="4" t="n">
+        <f aca="false">AVERAGE(D24:D32)</f>
+        <v>18157697.6467304</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <f aca="false">AVERAGE(E24:E32)</f>
+        <v>30539049.6431554</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <f aca="false">AVERAGE(G24:G32)</f>
+        <v>19386875.7970632</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="0" t="n">
-        <f aca="false">AVERAGE(M24:M31)</f>
-        <v>5131472.175583</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <f aca="false">AVERAGE(N24:N31)</f>
-        <v>4126426.37685462</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <f aca="false">AVERAGE(P24:P30)</f>
-        <v>211179.065135421</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>17</v>
+      <c r="M33" s="4" t="n">
+        <f aca="false">AVERAGE(M24:M32)</f>
+        <v>19601523.2980693</v>
+      </c>
+      <c r="N33" s="4" t="n">
+        <f aca="false">AVERAGE(N24:N32)</f>
+        <v>19117395.4249978</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="4" t="n">
+        <f aca="false">AVERAGE(P24:P32)</f>
+        <v>19226418.4477621</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L36" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="4" t="n">
+        <f aca="false">4.28651928502041*10^7</f>
+        <v>42865192.8502041</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <f aca="false">3.61565476474173*10^7</f>
+        <v>36156547.6474173</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>171559164.254151</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <f aca="false">3.5878115010802*10^7</f>
+        <v>35878115.010802</v>
       </c>
     </row>
   </sheetData>
@@ -1231,8 +1296,8 @@
   </sheetPr>
   <dimension ref="C2:T30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q17" activeCellId="0" sqref="Q17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,18 +1321,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,10 +1346,10 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -1299,689 +1364,820 @@
         <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="0" t="n">
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="12" t="n">
         <v>0.760087652631579</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="12" t="n">
         <v>0.658597752631579</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12" t="n">
         <v>0.69003083368421</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="n">
         <v>0.8829568</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="12" t="n">
         <v>0.885311642105263</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="0" t="n">
+      <c r="N7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="12" t="n">
         <v>0.865238012631578</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="n">
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="n">
         <v>0.509258822192513</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="12" t="n">
         <v>0.546897320588236</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12" t="n">
         <v>0.49731784117647</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="H8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="12" t="n">
         <v>0.67663675026738</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="12" t="n">
         <v>0.670680995454545</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="N8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="12" t="n">
         <v>0.671090432620321</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="C9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="n">
         <v>0.772037166666666</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="12" t="n">
         <v>0.717342183333333</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="12" t="n">
         <v>0.7468556</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="12" t="n">
         <v>0.7468556</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="12" t="n">
         <v>0.803524516666666</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="0" t="n">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="12" t="n">
         <v>0.856215016666667</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="12" t="n">
         <v>0.8547008</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="12" t="n">
         <v>0.855223133333333</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="12" t="n">
         <v>0.851374136666666</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="12" t="n">
         <v>0.875460383333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="n">
         <v>0.603460478571429</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="12" t="n">
         <v>0.575377928571428</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="12" t="n">
         <v>0.606646964285714</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="12" t="n">
         <v>0.595375221428571</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="12" t="n">
         <v>0.680716585714286</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="0" t="n">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="12" t="n">
         <v>0.695877114285714</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="12" t="n">
         <v>0.701313014285714</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="12" t="n">
         <v>0.703898614285714</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="12" t="n">
         <v>0.687079895714285</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="12" t="n">
         <v>0.762377992857143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="0" t="n">
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="n">
         <v>0.670277628571429</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="12" t="n">
         <v>0.658876857142857</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="12" t="n">
         <v>0.684335428571429</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="12" t="n">
         <v>0.67010714</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="12" t="n">
         <v>0.765753414285714</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="0" t="n">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="12" t="n">
         <v>0.778313171428571</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="12" t="n">
         <v>0.773636642857143</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="12" t="n">
         <v>0.7701584</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="12" t="n">
         <v>0.783781634285714</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="12" t="n">
         <v>0.831885128571429</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="0" t="n">
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="n">
         <v>0.847044437037037</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="12" t="n">
         <v>0.848220474074074</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="12" t="n">
         <v>0.847624</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="0" t="n">
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="12" t="n">
         <v>0.842124066666667</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="12" t="n">
         <v>0.837963344444444</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="0" t="n">
+      <c r="N12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="12" t="n">
         <v>0.832610325925925</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="12" t="n">
         <v>0.750178299009901</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="12" t="n">
         <v>0.618463663366337</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="12" t="n">
         <v>0.750178299009901</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="H13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="12" t="n">
         <v>0.828944783168317</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="12" t="n">
         <v>0.819125497029703</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="0" t="n">
+      <c r="N13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="12" t="n">
         <v>0.825732590099009</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="P13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">AVERAGE(D6:D13)</f>
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="n">
+        <f aca="false">AVERAGE(D7:D13)</f>
         <v>0.701763497811508</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="12" t="n">
         <f aca="false">AVERAGE(E6:E13)</f>
         <v>0.660539454243978</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">AVERAGE(G6:G13)</f>
+      <c r="F14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">AVERAGE(G7:G13)</f>
         <v>0.685355562185593</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="0" t="n">
+      <c r="H14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="12" t="n">
         <f aca="false">AVERAGE(L6:L13)</f>
         <v>0.794438243211902</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="12" t="n">
         <f aca="false">AVERAGE(M6:M13)</f>
         <v>0.791818848025259</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14" s="12" t="n">
         <f aca="false">AVERAGE(N6:N13)</f>
         <v>0.776426715873016</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14" s="12" t="n">
         <f aca="false">AVERAGE(O6:O13)</f>
         <v>0.7881295754205</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="D20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="L20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="N22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="0" t="n">
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="n">
         <v>0.191176221052632</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="12" t="n">
         <v>0.281662705263158</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="12" t="n">
         <v>0.244951042105263</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="0" t="n">
+      <c r="H23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="12" t="n">
         <v>0.558839336842105</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="12" t="n">
         <v>0.556641842105263</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="0" t="n">
+      <c r="N23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="12" t="n">
         <v>0.556114847368421</v>
       </c>
-      <c r="P23" s="0" t="s">
+      <c r="P23" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="0" t="n">
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="12" t="n">
         <v>0.0125608168449198</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="12" t="n">
         <v>0.0356504542780749</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="12" t="n">
         <v>0.0328030831550802</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="0" t="n">
+      <c r="H24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="12" t="n">
         <v>0.0716541614973262</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="12" t="n">
         <v>0.0697550767379679</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="0" t="n">
+      <c r="N24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="12" t="n">
         <v>0.0700636839572192</v>
       </c>
-      <c r="P24" s="0" t="s">
+      <c r="P24" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="0" t="n">
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="12" t="n">
         <v>0.599338716666667</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="12" t="n">
         <v>0.540855516666667</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="12" t="n">
         <v>0.569099</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="12" t="n">
         <v>0.5745585</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="12" t="n">
         <v>0.6557958</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="0" t="n">
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="12" t="n">
         <v>0.741190316666666</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="12" t="n">
         <v>0.737730066666666</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="12" t="n">
         <v>0.7400591</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="12" t="n">
         <v>0.73659129</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="12" t="n">
         <v>0.77980635</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="0" t="n">
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="12" t="n">
         <v>0.398281464285714</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="12" t="n">
         <v>0.367981921428571</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="12" t="n">
         <v>0.400292985714286</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="12" t="n">
         <v>0.395336848571428</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="12" t="n">
         <v>0.471037671428571</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="0" t="n">
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="12" t="n">
         <v>0.51228215</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="12" t="n">
         <v>0.5169551</v>
       </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="12" t="n">
         <v>0.512400792857143</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="O26" s="12" t="n">
         <v>0.505459242857142</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="12" t="n">
         <v>0.584899478571429</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="0" t="n">
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="n">
         <v>0.6242516</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="12" t="n">
         <v>0.629961414285714</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="12" t="n">
         <v>0.652636857142857</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="12" t="n">
         <v>0.650777274285714</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="12" t="n">
         <v>0.744270414285714</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="0" t="n">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="12" t="n">
         <v>0.774584742857143</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="12" t="n">
         <v>0.751020828571428</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="N27" s="12" t="n">
         <v>0.768585857142857</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="O27" s="12" t="n">
         <v>0.767790457142857</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="P27" s="12" t="n">
         <v>0.8321657</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="C28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="12" t="n">
         <v>0.693024514814815</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="12" t="n">
         <v>0.694914559259259</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="F28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="12" t="n">
         <v>0.696712044444444</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="0" t="n">
+      <c r="H28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="12" t="n">
         <v>0.624664788888889</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="12" t="n">
         <v>0.627223622222222</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="0" t="n">
+      <c r="N28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="12" t="n">
         <v>0.584995314814814</v>
       </c>
-      <c r="P28" s="0" t="s">
+      <c r="P28" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12" t="n">
         <v>0.111245755445545</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="12" t="n">
         <v>0.13333282970297</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="F29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="12" t="n">
         <v>0.111245755445544</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="0" t="n">
+      <c r="H29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="12" t="n">
         <v>0.415651968316832</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="12" t="n">
         <v>0.368793966336634</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="0" t="n">
+      <c r="N29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="12" t="n">
         <v>0.38538094950495</v>
       </c>
-      <c r="P29" s="0" t="s">
+      <c r="P29" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">AVERAGE(D22:D29)</f>
+        <v>37</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <f aca="false">AVERAGE(D23:D29)</f>
         <v>0.375697012730042</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">AVERAGE(E22:E29)</f>
+      <c r="E30" s="12" t="n">
+        <f aca="false">AVERAGE(E23:E29)</f>
         <v>0.383479914412059</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">AVERAGE(G22:G29)</f>
+      <c r="F30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="12" t="n">
+        <f aca="false">AVERAGE(G23:G29)</f>
         <v>0.386626364001068</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="0" t="n">
+      <c r="H30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="12" t="n">
         <f aca="false">AVERAGE(L22:L29)</f>
         <v>0.528409637866994</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="12" t="n">
         <f aca="false">AVERAGE(M22:M29)</f>
         <v>0.518302928948597</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="0" t="n">
+      <c r="N30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="12" t="n">
         <f aca="false">AVERAGE(O22:O29)</f>
         <v>0.515199397949343</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" s="12" t="s">
         <v>17</v>
       </c>
     </row>
